--- a/data/trans_orig/P6703-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Edad-trans_orig.xlsx
@@ -756,19 +756,19 @@
         <v>3856</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9038</v>
+        <v>9603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04391514941837918</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0110763657531321</v>
+        <v>0.01103314199078206</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1029368821427864</v>
+        <v>0.1093717736801596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -777,19 +777,19 @@
         <v>3856</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9780</v>
+        <v>9818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02259447153571197</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00565338860009545</v>
+        <v>0.005683017996320854</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05730753454659829</v>
+        <v>0.05753071790182643</v>
       </c>
     </row>
     <row r="5">
@@ -806,19 +806,19 @@
         <v>3743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9287</v>
+        <v>8740</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04518002799647459</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01152760431117206</v>
+        <v>0.0116867569813192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1120957525293216</v>
+        <v>0.105487638953768</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -827,19 +827,19 @@
         <v>3104</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9115</v>
+        <v>7416</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03535646782555752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01099917597775017</v>
+        <v>0.01087058107684729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1038117565483649</v>
+        <v>0.08446366327774238</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -848,19 +848,19 @@
         <v>6848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2840</v>
+        <v>2848</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13091</v>
+        <v>13606</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04012577784360487</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.016641267712326</v>
+        <v>0.01668721857384435</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07671175411378135</v>
+        <v>0.0797295089154091</v>
       </c>
     </row>
     <row r="6">
@@ -877,19 +877,19 @@
         <v>11049</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5918</v>
+        <v>6170</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19368</v>
+        <v>19487</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1333643193996872</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07142955570253522</v>
+        <v>0.07447345577824571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2337684931027671</v>
+        <v>0.235206820320279</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -898,19 +898,19 @@
         <v>9802</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4800</v>
+        <v>4919</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16079</v>
+        <v>16963</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1116413308012328</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05466556293974479</v>
+        <v>0.05602524802644895</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1831355968624535</v>
+        <v>0.1932000479054576</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -919,19 +919,19 @@
         <v>20852</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13876</v>
+        <v>13155</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31081</v>
+        <v>30632</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.122187778865068</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08131169316534043</v>
+        <v>0.07708728906909552</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1821291395989337</v>
+        <v>0.1795017865115788</v>
       </c>
     </row>
     <row r="7">
@@ -948,19 +948,19 @@
         <v>21630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13715</v>
+        <v>14230</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29510</v>
+        <v>29610</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.261068303509854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1655332560268361</v>
+        <v>0.1717490449930097</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3561824454029728</v>
+        <v>0.3573891721689704</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -969,19 +969,19 @@
         <v>25765</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17416</v>
+        <v>17428</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35654</v>
+        <v>35248</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.293448753012987</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1983608529259565</v>
+        <v>0.1984926743056353</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4060827196019669</v>
+        <v>0.4014575010076253</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -990,19 +990,19 @@
         <v>47395</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36917</v>
+        <v>35275</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60849</v>
+        <v>60528</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.277728138539492</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2163286594994861</v>
+        <v>0.2067078364032529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3565671095268785</v>
+        <v>0.3546857202490126</v>
       </c>
     </row>
     <row r="8">
@@ -1019,19 +1019,19 @@
         <v>46429</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37838</v>
+        <v>36199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55938</v>
+        <v>54969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5603873490939841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4567028045023388</v>
+        <v>0.4369225412964012</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6751672047572908</v>
+        <v>0.6634624024585347</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -1040,19 +1040,19 @@
         <v>45274</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35945</v>
+        <v>36195</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54438</v>
+        <v>55222</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5156382989418435</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4093938829170589</v>
+        <v>0.4122353043264862</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6200167318365949</v>
+        <v>0.6289483586479832</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>87</v>
@@ -1061,19 +1061,19 @@
         <v>91702</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75976</v>
+        <v>77395</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>104217</v>
+        <v>104446</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5373638332161231</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4452111384680978</v>
+        <v>0.4535281927619561</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.610701569713428</v>
+        <v>0.6120432422427171</v>
       </c>
     </row>
     <row r="9">
@@ -1165,19 +1165,19 @@
         <v>9519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4792</v>
+        <v>4836</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16949</v>
+        <v>16867</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02480996862120222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01248879862926613</v>
+        <v>0.0126053246125256</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04417514700596112</v>
+        <v>0.04396282725489433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1186,19 +1186,19 @@
         <v>11301</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6080</v>
+        <v>5430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20810</v>
+        <v>20134</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04076866546305222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02193545368510506</v>
+        <v>0.01959093663061475</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07507432642592601</v>
+        <v>0.07263464848708388</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1207,19 +1207,19 @@
         <v>20820</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13548</v>
+        <v>12476</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33114</v>
+        <v>31317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03150367024156787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02050112185149285</v>
+        <v>0.01887807045389214</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05010711114198702</v>
+        <v>0.0473874350728386</v>
       </c>
     </row>
     <row r="11">
@@ -1236,19 +1236,19 @@
         <v>5645</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2056</v>
+        <v>1959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12958</v>
+        <v>11894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01471283953769337</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005359514453210823</v>
+        <v>0.005104778724082868</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03377440269445708</v>
+        <v>0.03100149768133785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1257,19 +1257,19 @@
         <v>7334</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3145</v>
+        <v>3200</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14102</v>
+        <v>14079</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02645841744580692</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01134509849537844</v>
+        <v>0.01154605749835036</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0508747105054399</v>
+        <v>0.05079132044754809</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1278,19 +1278,19 @@
         <v>12979</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7090</v>
+        <v>7037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21946</v>
+        <v>22741</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01963939429681971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01072893809103419</v>
+        <v>0.01064766773947372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03320845766939232</v>
+        <v>0.03441065435258835</v>
       </c>
     </row>
     <row r="12">
@@ -1307,19 +1307,19 @@
         <v>72789</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58893</v>
+        <v>58202</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89765</v>
+        <v>89912</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1897179801407237</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1534979758496275</v>
+        <v>0.1516963794801213</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.233962542460981</v>
+        <v>0.2343448701184209</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>52</v>
@@ -1328,19 +1328,19 @@
         <v>54462</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42261</v>
+        <v>43290</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68618</v>
+        <v>71046</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1964771260916334</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1524624955096802</v>
+        <v>0.1561735616233375</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2475463773392689</v>
+        <v>0.2563051830930423</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>125</v>
@@ -1349,19 +1349,19 @@
         <v>127251</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>108283</v>
+        <v>107523</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>148553</v>
+        <v>148941</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1925530303113144</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1638503068954709</v>
+        <v>0.1627012758568149</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2247856181080635</v>
+        <v>0.2253729751923287</v>
       </c>
     </row>
     <row r="13">
@@ -1378,19 +1378,19 @@
         <v>108153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92117</v>
+        <v>90844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129168</v>
+        <v>126106</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2818886963844153</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2400926337851184</v>
+        <v>0.2367761826533834</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3366631544084138</v>
+        <v>0.3286806004685232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -1399,19 +1399,19 @@
         <v>80434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66414</v>
+        <v>65309</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96384</v>
+        <v>96272</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2901759887251317</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2395970238948156</v>
+        <v>0.2356086462666173</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.34771618398002</v>
+        <v>0.3473122860843542</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>180</v>
@@ -1420,19 +1420,19 @@
         <v>188587</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>166875</v>
+        <v>164830</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>212108</v>
+        <v>213030</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2853647109186363</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2525097460770866</v>
+        <v>0.249416265724024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3209557756355822</v>
+        <v>0.3223513099490775</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>187566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167528</v>
+        <v>169357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>206367</v>
+        <v>209734</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4888705153159654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4366445264789071</v>
+        <v>0.4414121748887193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5378736971799072</v>
+        <v>0.5466499283472125</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -1470,19 +1470,19 @@
         <v>123661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>107479</v>
+        <v>104975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>140985</v>
+        <v>138877</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4461198022743758</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3877428949744198</v>
+        <v>0.378709128026972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5086182691983041</v>
+        <v>0.5010149677379361</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>290</v>
@@ -1491,19 +1491,19 @@
         <v>311227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>284733</v>
+        <v>286620</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>336091</v>
+        <v>339345</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4709391942316618</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4308501698705759</v>
+        <v>0.4337055213816715</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5085626338727147</v>
+        <v>0.5134868302060192</v>
       </c>
     </row>
     <row r="15">
@@ -1595,19 +1595,19 @@
         <v>5827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2134</v>
+        <v>2152</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12246</v>
+        <v>12595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01370362731675586</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005017831881602855</v>
+        <v>0.005060256238747201</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02880088398899112</v>
+        <v>0.02962103231772651</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1616,19 +1616,19 @@
         <v>5684</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2027</v>
+        <v>1994</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13428</v>
+        <v>12621</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01988719710689575</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007092584510890269</v>
+        <v>0.006975546298727689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04697927748487928</v>
+        <v>0.04415742856295505</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1637,19 +1637,19 @@
         <v>11511</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6343</v>
+        <v>5970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21401</v>
+        <v>21015</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01618936448540158</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008921683582158937</v>
+        <v>0.008396754244833257</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03009974214709198</v>
+        <v>0.02955619738837233</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>14837</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8277</v>
+        <v>8594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24690</v>
+        <v>23374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0348957576765169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0194656332608527</v>
+        <v>0.02021226225369986</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05806931276472546</v>
+        <v>0.0549742342524898</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1687,19 +1687,19 @@
         <v>12444</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7062</v>
+        <v>6597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20735</v>
+        <v>20621</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04353757232578043</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02470976287102306</v>
+        <v>0.02308171280570755</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0725468594054149</v>
+        <v>0.07214787963168048</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1708,19 +1708,19 @@
         <v>27281</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18490</v>
+        <v>17907</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40601</v>
+        <v>39071</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03836968626586908</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02600591579142099</v>
+        <v>0.02518574998179184</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05710343831812335</v>
+        <v>0.05495206253524038</v>
       </c>
     </row>
     <row r="18">
@@ -1737,19 +1737,19 @@
         <v>82553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66911</v>
+        <v>67005</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>99132</v>
+        <v>99726</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1941569857080875</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1573686760896172</v>
+        <v>0.157589006269057</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2331475643341082</v>
+        <v>0.2345451732155432</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -1758,19 +1758,19 @@
         <v>52851</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41345</v>
+        <v>40245</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67001</v>
+        <v>66143</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.184910877189284</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1446561880863229</v>
+        <v>0.1408067582169373</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2344181922467302</v>
+        <v>0.2314155521090491</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>134</v>
@@ -1779,19 +1779,19 @@
         <v>135404</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>115863</v>
+        <v>116433</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>156862</v>
+        <v>157820</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1904401366402286</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1629560074471618</v>
+        <v>0.163757506051372</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2206195663995408</v>
+        <v>0.2219674164874224</v>
       </c>
     </row>
     <row r="19">
@@ -1808,19 +1808,19 @@
         <v>131205</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>111880</v>
+        <v>113075</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150995</v>
+        <v>151222</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3085808883813929</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2631304183074975</v>
+        <v>0.265940148377023</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3551239378414309</v>
+        <v>0.3556571454027188</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -1829,19 +1829,19 @@
         <v>83046</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67922</v>
+        <v>67932</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98972</v>
+        <v>99600</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2905571719550364</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.237641621713641</v>
+        <v>0.2376754500384249</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3462775084110967</v>
+        <v>0.3484723597790727</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>207</v>
@@ -1850,19 +1850,19 @@
         <v>214252</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189932</v>
+        <v>190377</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>240449</v>
+        <v>239113</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3013355231055671</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2671316192161245</v>
+        <v>0.2677567418630059</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3381814911176352</v>
+        <v>0.3363020312326908</v>
       </c>
     </row>
     <row r="20">
@@ -1879,19 +1879,19 @@
         <v>190766</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>170338</v>
+        <v>169215</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>212671</v>
+        <v>210515</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4486627409172469</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4006175448542168</v>
+        <v>0.3979768075232875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.500180524454217</v>
+        <v>0.4951084015257556</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>127</v>
@@ -1900,19 +1900,19 @@
         <v>131793</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113673</v>
+        <v>116016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>149501</v>
+        <v>150153</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4611071814230034</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3977112609785967</v>
+        <v>0.4059085604742275</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5230622151646127</v>
+        <v>0.5253439410201819</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>305</v>
@@ -1921,19 +1921,19 @@
         <v>322559</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>297978</v>
+        <v>297454</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>350834</v>
+        <v>348715</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4536652895029336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4190926129153759</v>
+        <v>0.4183554770317784</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4934331625801619</v>
+        <v>0.4904518791842971</v>
       </c>
     </row>
     <row r="21">
@@ -2025,19 +2025,19 @@
         <v>11757</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6061</v>
+        <v>5256</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20895</v>
+        <v>21695</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03179673451376769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01639285348033643</v>
+        <v>0.01421605548325231</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05651069679725716</v>
+        <v>0.05867581834138546</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2046,19 +2046,19 @@
         <v>8119</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3106</v>
+        <v>2914</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16880</v>
+        <v>16708</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03603098094706159</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01378543065037001</v>
+        <v>0.01293225127492637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0749091474169392</v>
+        <v>0.07414602663452539</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2067,19 +2067,19 @@
         <v>19876</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12395</v>
+        <v>12268</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32360</v>
+        <v>33413</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0334001023698096</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02082850190389336</v>
+        <v>0.02061487780236835</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.054378573192683</v>
+        <v>0.05614720386732505</v>
       </c>
     </row>
     <row r="23">
@@ -2096,19 +2096,19 @@
         <v>7366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3094</v>
+        <v>3005</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16909</v>
+        <v>16594</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01992123392507106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008368101619312285</v>
+        <v>0.00812791160206729</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04573110412263508</v>
+        <v>0.04487860616265126</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2117,19 +2117,19 @@
         <v>8534</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4122</v>
+        <v>4161</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16167</v>
+        <v>16021</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03787069140895449</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01829235109424973</v>
+        <v>0.01846467377831236</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07174275278136506</v>
+        <v>0.07109832470749915</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2138,19 +2138,19 @@
         <v>15900</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9099</v>
+        <v>8632</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26895</v>
+        <v>25570</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02671809462187786</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01529063493436651</v>
+        <v>0.0145061619397994</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04519506388045889</v>
+        <v>0.04296818444638243</v>
       </c>
     </row>
     <row r="24">
@@ -2167,19 +2167,19 @@
         <v>72366</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>58004</v>
+        <v>57611</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90538</v>
+        <v>90060</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1957172804147594</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1568742930253025</v>
+        <v>0.1558124434450687</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2448623684213704</v>
+        <v>0.2435716898611991</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -2188,19 +2188,19 @@
         <v>40929</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29620</v>
+        <v>29423</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54388</v>
+        <v>56063</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1816322762280726</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1314459504492239</v>
+        <v>0.1305701416501261</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2413587886994492</v>
+        <v>0.2487924894277399</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>99</v>
@@ -2209,19 +2209,19 @@
         <v>113295</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>95009</v>
+        <v>93478</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>133948</v>
+        <v>134517</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1903837592508575</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1596546340283134</v>
+        <v>0.1570821984863947</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2250895115993237</v>
+        <v>0.2260454719462691</v>
       </c>
     </row>
     <row r="25">
@@ -2238,19 +2238,19 @@
         <v>120431</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101738</v>
+        <v>102936</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>140584</v>
+        <v>140332</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3257108922139965</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2751534371516461</v>
+        <v>0.2783941587339149</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3802152336683502</v>
+        <v>0.3795319729347707</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -2259,19 +2259,19 @@
         <v>69483</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54828</v>
+        <v>54955</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>84264</v>
+        <v>86000</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3083491360675095</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.243310219626508</v>
+        <v>0.2438752841146711</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3739409916257014</v>
+        <v>0.3816439535155802</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>167</v>
@@ -2280,19 +2280,19 @@
         <v>189915</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>166261</v>
+        <v>163581</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>214229</v>
+        <v>211606</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3191365744060318</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2793884128965571</v>
+        <v>0.2748842275371686</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3599942378523102</v>
+        <v>0.3555868739487302</v>
       </c>
     </row>
     <row r="26">
@@ -2309,19 +2309,19 @@
         <v>157829</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>136277</v>
+        <v>137713</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>178725</v>
+        <v>179404</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4268538589324053</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3685664109773006</v>
+        <v>0.3724491533199477</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4833672909512882</v>
+        <v>0.4852052294363541</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>86</v>
@@ -2330,19 +2330,19 @@
         <v>98275</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>82915</v>
+        <v>82197</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>112649</v>
+        <v>114250</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4361169153484017</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3679570478259619</v>
+        <v>0.3647679275944336</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4999059515029377</v>
+        <v>0.5070113165186294</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>224</v>
@@ -2351,19 +2351,19 @@
         <v>256103</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>232218</v>
+        <v>230914</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>284102</v>
+        <v>284218</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4303614693514233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3902240737142088</v>
+        <v>0.388033214361077</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4774109978278148</v>
+        <v>0.4776067021061825</v>
       </c>
     </row>
     <row r="27">
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4922</v>
+        <v>4997</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006142937693848952</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03128221202882858</v>
+        <v>0.03175598795318685</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4850</v>
+        <v>5592</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01354246870719848</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06958969503000338</v>
+        <v>0.08023863953262288</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5980</v>
+        <v>6523</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008414230086435865</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02633842702942986</v>
+        <v>0.02872951420404781</v>
       </c>
     </row>
     <row r="29">
@@ -2526,19 +2526,19 @@
         <v>3093</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8392</v>
+        <v>8299</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01965503021203469</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006384350048651429</v>
+        <v>0.006394913503561115</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05333127821424941</v>
+        <v>0.05274365462411928</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8261</v>
+        <v>7309</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03365057631671474</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1185306809419952</v>
+        <v>0.1048820289707381</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2568,19 +2568,19 @@
         <v>5438</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12687</v>
+        <v>12270</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02395097509561047</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009221158678273722</v>
+        <v>0.009217457227067061</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05588184408598627</v>
+        <v>0.05404387085164294</v>
       </c>
     </row>
     <row r="30">
@@ -2597,19 +2597,19 @@
         <v>29828</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20570</v>
+        <v>20334</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41042</v>
+        <v>41504</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1895609995017868</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1307291361813943</v>
+        <v>0.1292295658157246</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2608312612192887</v>
+        <v>0.2637661975149254</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -2618,19 +2618,19 @@
         <v>14585</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8539</v>
+        <v>8785</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22210</v>
+        <v>22804</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2092829123860376</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1225280891274834</v>
+        <v>0.1260554761249462</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.318685370683133</v>
+        <v>0.3272220309950626</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -2639,19 +2639,19 @@
         <v>44413</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32645</v>
+        <v>33427</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57911</v>
+        <v>58119</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1956146575809877</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1437851851033516</v>
+        <v>0.1472270792983813</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2550666059169435</v>
+        <v>0.2559859576306096</v>
       </c>
     </row>
     <row r="31">
@@ -2668,19 +2668,19 @@
         <v>45572</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>35025</v>
+        <v>34563</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>58924</v>
+        <v>57837</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2896223426115347</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2225899188492657</v>
+        <v>0.2196582584149541</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3744751602985954</v>
+        <v>0.3675636130254314</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -2689,19 +2689,19 @@
         <v>19470</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12154</v>
+        <v>12926</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>27636</v>
+        <v>28691</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2793762110117136</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1744043867746458</v>
+        <v>0.1854713136422325</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.396550644543587</v>
+        <v>0.4116830384717341</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>59</v>
@@ -2710,19 +2710,19 @@
         <v>65042</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>51245</v>
+        <v>52595</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>79379</v>
+        <v>80606</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2864772837268387</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2257061683728397</v>
+        <v>0.2316527431690684</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3496232030615221</v>
+        <v>0.3550264400381816</v>
       </c>
     </row>
     <row r="32">
@@ -2739,19 +2739,19 @@
         <v>77892</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>65046</v>
+        <v>65376</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>91018</v>
+        <v>90848</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4950186899807949</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4133808402088009</v>
+        <v>0.4154813139249971</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5784391985589176</v>
+        <v>0.5773579586393427</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>30</v>
@@ -2760,19 +2760,19 @@
         <v>32347</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24488</v>
+        <v>24279</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42001</v>
+        <v>41059</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4641478315783356</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3513757923932151</v>
+        <v>0.3483749951414496</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6026809841095316</v>
+        <v>0.5891586991883629</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -2781,19 +2781,19 @@
         <v>110238</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>95502</v>
+        <v>93875</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>127561</v>
+        <v>125882</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4855428535101273</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4206388908747303</v>
+        <v>0.4134695096889101</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5618410576952613</v>
+        <v>0.5544439199942468</v>
       </c>
     </row>
     <row r="33">
@@ -2885,19 +2885,19 @@
         <v>28069</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19083</v>
+        <v>19086</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>40987</v>
+        <v>39895</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01978340317425294</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01345002772434939</v>
+        <v>0.01345240727152238</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02888815342863404</v>
+        <v>0.02811891496009403</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>26</v>
@@ -2906,19 +2906,19 @@
         <v>29904</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>19547</v>
+        <v>19937</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>44194</v>
+        <v>42182</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03161593385223081</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02066613714088403</v>
+        <v>0.02107820487277248</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04672500332451643</v>
+        <v>0.04459724877805531</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>53</v>
@@ -2927,19 +2927,19 @@
         <v>57973</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>43756</v>
+        <v>43346</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>75168</v>
+        <v>75962</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02451631945064568</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01850407711260508</v>
+        <v>0.01833087642458521</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03178834354632456</v>
+        <v>0.03212390090405641</v>
       </c>
     </row>
     <row r="35">
@@ -2956,19 +2956,19 @@
         <v>34684</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>22904</v>
+        <v>24259</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>47982</v>
+        <v>48653</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02444580557024714</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01614342441638248</v>
+        <v>0.01709819986133003</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03381814932299935</v>
+        <v>0.03429131104035522</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>32</v>
@@ -2977,19 +2977,19 @@
         <v>33761</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>23520</v>
+        <v>24208</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>47341</v>
+        <v>46360</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0356942718825479</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02486637482159908</v>
+        <v>0.02559360183424097</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05005215585857668</v>
+        <v>0.04901495830452568</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>64</v>
@@ -2998,19 +2998,19 @@
         <v>68445</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>54169</v>
+        <v>54068</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>86132</v>
+        <v>87236</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0289451008387587</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02290784297321949</v>
+        <v>0.02286517618510017</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03642476827644889</v>
+        <v>0.03689147483364522</v>
       </c>
     </row>
     <row r="36">
@@ -3027,19 +3027,19 @@
         <v>268586</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>238698</v>
+        <v>238672</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>300258</v>
+        <v>301142</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1893035446694815</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1682382389303095</v>
+        <v>0.1682198292489861</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2116262662801427</v>
+        <v>0.212249468308206</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>160</v>
@@ -3048,19 +3048,19 @@
         <v>172629</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>149326</v>
+        <v>149090</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>200368</v>
+        <v>197555</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1825136980403396</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1578765835126442</v>
+        <v>0.1576266873776836</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.211840764440049</v>
+        <v>0.2088671934996645</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>418</v>
@@ -3069,19 +3069,19 @@
         <v>441215</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>404210</v>
+        <v>405377</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>484937</v>
+        <v>479971</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1865876611024027</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.170938332375054</v>
+        <v>0.1714318376187149</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2050773777508055</v>
+        <v>0.2029775209182785</v>
       </c>
     </row>
     <row r="37">
@@ -3098,19 +3098,19 @@
         <v>426991</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>388568</v>
+        <v>388191</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>458761</v>
+        <v>462038</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3009499576949664</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2738684264243056</v>
+        <v>0.2736028644621226</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3233417627184575</v>
+        <v>0.3256517210597368</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>253</v>
@@ -3119,19 +3119,19 @@
         <v>278199</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>250077</v>
+        <v>250220</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>308345</v>
+        <v>306055</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2941288707614935</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2643961106932654</v>
+        <v>0.2645477311676855</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.326000054140668</v>
+        <v>0.3235789205149696</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>658</v>
@@ -3140,19 +3140,19 @@
         <v>705191</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>653890</v>
+        <v>652877</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>750279</v>
+        <v>748716</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2982215782596011</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2765266423050003</v>
+        <v>0.2760983357441438</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3172891794612335</v>
+        <v>0.3166283676376778</v>
       </c>
     </row>
     <row r="38">
@@ -3169,19 +3169,19 @@
         <v>660481</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>619216</v>
+        <v>621509</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>699930</v>
+        <v>700280</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.465517288891052</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4364328067959009</v>
+        <v>0.43804941352817</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4933211900517539</v>
+        <v>0.4935679122876244</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>402</v>
@@ -3190,19 +3190,19 @@
         <v>431349</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>398233</v>
+        <v>403898</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>462684</v>
+        <v>462810</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4560472254633882</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.421035373266841</v>
+        <v>0.4270243315191739</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4891767455470133</v>
+        <v>0.4893095260679478</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1011</v>
@@ -3211,19 +3211,19 @@
         <v>1091830</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1043665</v>
+        <v>1043808</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1140171</v>
+        <v>1148520</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4617293403485919</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4413607747430279</v>
+        <v>0.4414212270679276</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4821727236864516</v>
+        <v>0.4857033223698091</v>
       </c>
     </row>
     <row r="39">
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4921</v>
+        <v>5335</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0133277880807062</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06220089774037462</v>
+        <v>0.06744317306526024</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3577,19 +3577,19 @@
         <v>6235</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2424</v>
+        <v>2775</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12540</v>
+        <v>13366</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06787937536208415</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02638415112265869</v>
+        <v>0.03020952135108818</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1365203345414081</v>
+        <v>0.1455140616927559</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3598,19 +3598,19 @@
         <v>7289</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2891</v>
+        <v>3002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13968</v>
+        <v>14930</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04263703324644173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01690863309638148</v>
+        <v>0.01755761679550936</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08169981719635303</v>
+        <v>0.08732557400232703</v>
       </c>
     </row>
     <row r="5">
@@ -3627,19 +3627,19 @@
         <v>4064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9842</v>
+        <v>9673</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05137767532697808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01282326890421759</v>
+        <v>0.01282731973590558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1244151233918378</v>
+        <v>0.1222702769292616</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -3648,19 +3648,19 @@
         <v>3815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8712</v>
+        <v>8625</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04153688128724545</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01043688514207406</v>
+        <v>0.01040077778675059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09484016118488477</v>
+        <v>0.09390149467608239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -3669,19 +3669,19 @@
         <v>7880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3908</v>
+        <v>3878</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15596</v>
+        <v>14895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04609045529342845</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02285729899656034</v>
+        <v>0.02268324346312273</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09122301463894493</v>
+        <v>0.08712237603837682</v>
       </c>
     </row>
     <row r="6">
@@ -3698,19 +3698,19 @@
         <v>15907</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8852</v>
+        <v>9517</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23900</v>
+        <v>23635</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2010709388530399</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.111899303656878</v>
+        <v>0.1203038484278878</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3021142510644739</v>
+        <v>0.2987637614196693</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -3719,19 +3719,19 @@
         <v>18029</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11022</v>
+        <v>11281</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25938</v>
+        <v>25697</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.196272762018054</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1199964701091843</v>
+        <v>0.1228144771463455</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2823764591026062</v>
+        <v>0.2797518479949528</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -3740,19 +3740,19 @@
         <v>33935</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>24442</v>
+        <v>23502</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45134</v>
+        <v>43755</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1984929947781997</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.142968058752752</v>
+        <v>0.1374649812262242</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2639970726401427</v>
+        <v>0.2559318236964949</v>
       </c>
     </row>
     <row r="7">
@@ -3769,19 +3769,19 @@
         <v>24273</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16715</v>
+        <v>17104</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33751</v>
+        <v>33727</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3068323697001145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2112849768529944</v>
+        <v>0.2162112749503645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4266337382160469</v>
+        <v>0.4263368390932352</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -3790,19 +3790,19 @@
         <v>29703</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21657</v>
+        <v>20691</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39069</v>
+        <v>38585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3233632799864878</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2357748306072306</v>
+        <v>0.2252558875058017</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4253291021427649</v>
+        <v>0.4200687776998515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -3811,19 +3811,19 @@
         <v>53976</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41447</v>
+        <v>42323</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65844</v>
+        <v>65782</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.315714026981634</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2424338834957455</v>
+        <v>0.2475538347224805</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3851338096260533</v>
+        <v>0.3847696549475006</v>
       </c>
     </row>
     <row r="8">
@@ -3840,19 +3840,19 @@
         <v>33810</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25226</v>
+        <v>25608</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43028</v>
+        <v>43672</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4273912280391613</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.318877127539322</v>
+        <v>0.3237016138930781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.54391262226322</v>
+        <v>0.5520538807572775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -3861,19 +3861,19 @@
         <v>34073</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25389</v>
+        <v>25477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43468</v>
+        <v>44473</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3709477013461286</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2764026666477945</v>
+        <v>0.2773594310653656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4732266263833135</v>
+        <v>0.4841654509432661</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -3882,19 +3882,19 @@
         <v>67884</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>56292</v>
+        <v>56164</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>82520</v>
+        <v>81645</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3970654897002961</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3292623185630346</v>
+        <v>0.3285118547553779</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.482675721973762</v>
+        <v>0.4775571122352886</v>
       </c>
     </row>
     <row r="9">
@@ -3986,19 +3986,19 @@
         <v>10686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5668</v>
+        <v>5820</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18788</v>
+        <v>19532</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0310482362423824</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0164690444386447</v>
+        <v>0.01690858052963945</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05458711425773902</v>
+        <v>0.0567486692778148</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4007,19 +4007,19 @@
         <v>8619</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4502</v>
+        <v>3845</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16171</v>
+        <v>15467</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03148925204949099</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01644859564253406</v>
+        <v>0.01404659141981622</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05908043859730484</v>
+        <v>0.05650907266934735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -4028,19 +4028,19 @@
         <v>19305</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11752</v>
+        <v>11914</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28050</v>
+        <v>29348</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03124359616251946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01901868299992619</v>
+        <v>0.01928168548521474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04539592390603239</v>
+        <v>0.04749694097781187</v>
       </c>
     </row>
     <row r="11">
@@ -4057,19 +4057,19 @@
         <v>19366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12017</v>
+        <v>11882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28802</v>
+        <v>28496</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05626750322191135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03491306157469819</v>
+        <v>0.03452120987789249</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08368075825646773</v>
+        <v>0.08279385762434334</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -4078,19 +4078,19 @@
         <v>22158</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14579</v>
+        <v>14334</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32074</v>
+        <v>32152</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08095403932210612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05326352092666228</v>
+        <v>0.05236972441699087</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1171789006731192</v>
+        <v>0.1174648936955458</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -4099,19 +4099,19 @@
         <v>41525</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30222</v>
+        <v>31185</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54957</v>
+        <v>56281</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06720307433582196</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04891058896742746</v>
+        <v>0.05046980399770305</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08894159388273278</v>
+        <v>0.09108438021561319</v>
       </c>
     </row>
     <row r="12">
@@ -4128,19 +4128,19 @@
         <v>68609</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55299</v>
+        <v>55077</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85426</v>
+        <v>85151</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1993371855331781</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1606670031824346</v>
+        <v>0.1600224180110198</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2481974766038722</v>
+        <v>0.2473979507298153</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -4149,19 +4149,19 @@
         <v>36417</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26391</v>
+        <v>26716</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47276</v>
+        <v>48045</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1330472718744896</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09641762190782274</v>
+        <v>0.09760624015021722</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1727207848272095</v>
+        <v>0.1755283665024044</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>106</v>
@@ -4170,19 +4170,19 @@
         <v>105026</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>87575</v>
+        <v>88117</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>124210</v>
+        <v>124372</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1699722692886564</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1417300817417469</v>
+        <v>0.1426069596828907</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2010192052176085</v>
+        <v>0.2012809851563939</v>
       </c>
     </row>
     <row r="13">
@@ -4199,19 +4199,19 @@
         <v>113283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95991</v>
+        <v>96121</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131956</v>
+        <v>131137</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.329133215731013</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2788943040434876</v>
+        <v>0.2792715813094912</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3833874084412944</v>
+        <v>0.3810076839486195</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -4220,19 +4220,19 @@
         <v>80421</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66629</v>
+        <v>67138</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>94269</v>
+        <v>95045</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2938126927962417</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2434235674317712</v>
+        <v>0.245284906446238</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3444054966759505</v>
+        <v>0.3472379142232745</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -4241,19 +4241,19 @@
         <v>193704</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171903</v>
+        <v>170625</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217789</v>
+        <v>217317</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3134870315613896</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2782049726518189</v>
+        <v>0.2761363992537766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3524650863681283</v>
+        <v>0.3517010505754441</v>
       </c>
     </row>
     <row r="14">
@@ -4270,19 +4270,19 @@
         <v>132241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>114660</v>
+        <v>114848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152830</v>
+        <v>149141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3842138592715152</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3331351875573191</v>
+        <v>0.3336799586760561</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4440332293053499</v>
+        <v>0.4333168539746226</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -4291,19 +4291,19 @@
         <v>126100</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109209</v>
+        <v>110556</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>143130</v>
+        <v>142552</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4606967439576716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3989868256784322</v>
+        <v>0.4039094252294576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5229125461528805</v>
+        <v>0.5208038037630799</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>253</v>
@@ -4312,19 +4312,19 @@
         <v>258341</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>235846</v>
+        <v>233147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283765</v>
+        <v>283027</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4180940286516125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3816886807467034</v>
+        <v>0.3773197163809147</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4592397193704564</v>
+        <v>0.4580455737450838</v>
       </c>
     </row>
     <row r="15">
@@ -4416,19 +4416,19 @@
         <v>13755</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7539</v>
+        <v>7695</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24034</v>
+        <v>24997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02992965257885047</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01640297430940307</v>
+        <v>0.01674422616527783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05229491255954122</v>
+        <v>0.05439043108670986</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4437,19 +4437,19 @@
         <v>10260</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5536</v>
+        <v>5499</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17822</v>
+        <v>17520</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03232269330731152</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01744180743182993</v>
+        <v>0.01732433972721907</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05614691115977914</v>
+        <v>0.05519607694463524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -4458,19 +4458,19 @@
         <v>24015</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15240</v>
+        <v>15109</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35692</v>
+        <v>34031</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03090723617086919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01961330038101393</v>
+        <v>0.01944495586019273</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04593522845875806</v>
+        <v>0.04379840624623042</v>
       </c>
     </row>
     <row r="17">
@@ -4487,19 +4487,19 @@
         <v>27613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18835</v>
+        <v>17594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40555</v>
+        <v>40340</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06008152112623577</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04098241674548831</v>
+        <v>0.03828264028363331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08824161022540286</v>
+        <v>0.08777483786073263</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -4508,19 +4508,19 @@
         <v>15667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9084</v>
+        <v>9516</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25483</v>
+        <v>25168</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04935864292438924</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02862025052175431</v>
+        <v>0.0299807119654695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08028472728568828</v>
+        <v>0.07929163173882585</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -4529,19 +4529,19 @@
         <v>43280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31395</v>
+        <v>30810</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58528</v>
+        <v>58981</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05570110684215395</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.040405016223424</v>
+        <v>0.03965213147380441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07532572072172525</v>
+        <v>0.07590911749891897</v>
       </c>
     </row>
     <row r="18">
@@ -4558,19 +4558,19 @@
         <v>82615</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>67546</v>
+        <v>67643</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>100718</v>
+        <v>98817</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1797588988142933</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1469709553400787</v>
+        <v>0.1471821125372725</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2191493861682181</v>
+        <v>0.2150114080017858</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -4579,19 +4579,19 @@
         <v>59514</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46920</v>
+        <v>46742</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73716</v>
+        <v>73779</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.187495051286881</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1478203783340203</v>
+        <v>0.1472587632631187</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2322378026498784</v>
+        <v>0.2324388625652226</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>137</v>
@@ -4600,19 +4600,19 @@
         <v>142128</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>120790</v>
+        <v>123193</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165340</v>
+        <v>166386</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1829192026204974</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1554564982922177</v>
+        <v>0.1585495886125958</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2127928990264364</v>
+        <v>0.2141386006071194</v>
       </c>
     </row>
     <row r="19">
@@ -4629,19 +4629,19 @@
         <v>163882</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>143140</v>
+        <v>144348</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>185876</v>
+        <v>184946</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3565852270932327</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3114522931782137</v>
+        <v>0.3140814117535901</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4044398494675415</v>
+        <v>0.4024179346397584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -4650,19 +4650,19 @@
         <v>89115</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74894</v>
+        <v>74328</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>105466</v>
+        <v>104838</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2807523973253059</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2359517031329993</v>
+        <v>0.2341666650698073</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3322654998336629</v>
+        <v>0.3302871012859679</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>252</v>
@@ -4671,19 +4671,19 @@
         <v>252997</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>226387</v>
+        <v>227368</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>279076</v>
+        <v>278039</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3256066778208397</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2913600438664886</v>
+        <v>0.2926223388381391</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3591705648357553</v>
+        <v>0.3578362887326214</v>
       </c>
     </row>
     <row r="20">
@@ -4700,19 +4700,19 @@
         <v>171723</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>149850</v>
+        <v>148307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194247</v>
+        <v>193969</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3736447003873878</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3260525436063096</v>
+        <v>0.3226958701715213</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4226536078508741</v>
+        <v>0.4220495599577619</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>141</v>
@@ -4721,19 +4721,19 @@
         <v>142859</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126077</v>
+        <v>126051</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>158839</v>
+        <v>158352</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4500712151561123</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3971993343426321</v>
+        <v>0.3971177397981649</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5004152684989389</v>
+        <v>0.4988803792022791</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>305</v>
@@ -4742,19 +4742,19 @@
         <v>314581</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>287558</v>
+        <v>287170</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>343655</v>
+        <v>345169</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4048657765456398</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3700872423149343</v>
+        <v>0.3695872688031397</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4422844441899297</v>
+        <v>0.444232278071273</v>
       </c>
     </row>
     <row r="21">
@@ -4846,19 +4846,19 @@
         <v>11129</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5882</v>
+        <v>5242</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19619</v>
+        <v>19674</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03026464576228853</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01599472614480438</v>
+        <v>0.01425554021274319</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05335059158669689</v>
+        <v>0.05350200467209327</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4867,19 +4867,19 @@
         <v>7353</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3149</v>
+        <v>3098</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14848</v>
+        <v>14404</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03024279838004879</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0129525159796496</v>
+        <v>0.01274131988655147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06107517893700695</v>
+        <v>0.05924809480503202</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -4888,19 +4888,19 @@
         <v>18482</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11345</v>
+        <v>11149</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28810</v>
+        <v>28388</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03025595045962195</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01857285104916188</v>
+        <v>0.01825144721832459</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04716453571937346</v>
+        <v>0.04647382435166551</v>
       </c>
     </row>
     <row r="23">
@@ -4917,19 +4917,19 @@
         <v>15946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9077</v>
+        <v>9474</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25221</v>
+        <v>25673</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04336253803023429</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0246829642970234</v>
+        <v>0.02576242676185504</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06858599362244942</v>
+        <v>0.06981399195485657</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -4938,19 +4938,19 @@
         <v>14507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8152</v>
+        <v>8024</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23089</v>
+        <v>24359</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05967047846410596</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03352915072194632</v>
+        <v>0.03300377988201557</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09496878868190042</v>
+        <v>0.1001938753602979</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -4959,19 +4959,19 @@
         <v>30453</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21215</v>
+        <v>20566</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43740</v>
+        <v>43493</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04985313156610818</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0347312991263724</v>
+        <v>0.03366747932287647</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07160506927074917</v>
+        <v>0.07120183342296391</v>
       </c>
     </row>
     <row r="24">
@@ -4988,19 +4988,19 @@
         <v>61696</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>49476</v>
+        <v>47584</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>79524</v>
+        <v>77902</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1677757237214223</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1345443030465525</v>
+        <v>0.1294011102426026</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2162586914015804</v>
+        <v>0.2118454759107709</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -5009,19 +5009,19 @@
         <v>37213</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27454</v>
+        <v>27211</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>50497</v>
+        <v>48820</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.153065425773991</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.112925549393817</v>
+        <v>0.111924770087609</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2077054787811862</v>
+        <v>0.2008064483750068</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>90</v>
@@ -5030,19 +5030,19 @@
         <v>98909</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82353</v>
+        <v>80634</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>119644</v>
+        <v>119120</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1619209951518926</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1348175018329123</v>
+        <v>0.1320046156625628</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1958664920437471</v>
+        <v>0.1950082128324526</v>
       </c>
     </row>
     <row r="25">
@@ -5059,19 +5059,19 @@
         <v>124712</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106271</v>
+        <v>105414</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>145891</v>
+        <v>142154</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3391432942914619</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2889942368098607</v>
+        <v>0.2866628089760232</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3967374134787361</v>
+        <v>0.3865744707278331</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -5080,19 +5080,19 @@
         <v>72120</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58187</v>
+        <v>58204</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87088</v>
+        <v>87070</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2966459374722025</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2393370166590951</v>
+        <v>0.2394079888230818</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3582138276441686</v>
+        <v>0.358139589578152</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>181</v>
@@ -5101,19 +5101,19 @@
         <v>196832</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>172741</v>
+        <v>171128</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>218652</v>
+        <v>219748</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3222292596479515</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.282789965089826</v>
+        <v>0.2801491570051803</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3579499883475762</v>
+        <v>0.3597440818335358</v>
       </c>
     </row>
     <row r="26">
@@ -5130,19 +5130,19 @@
         <v>154245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>135625</v>
+        <v>134020</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>175777</v>
+        <v>175578</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4194537981945929</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.368818235258501</v>
+        <v>0.3644530481891732</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4780085817592341</v>
+        <v>0.4774681920724823</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>100</v>
@@ -5151,19 +5151,19 @@
         <v>111926</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>96580</v>
+        <v>95442</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127025</v>
+        <v>128365</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4603753599096517</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3972539923249436</v>
+        <v>0.3925761700376597</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5224816132302309</v>
+        <v>0.5279927248243181</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>237</v>
@@ -5172,19 +5172,19 @@
         <v>266170</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>243631</v>
+        <v>241005</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>293298</v>
+        <v>292939</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4357406631744258</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.398842472106504</v>
+        <v>0.3945437724808788</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4801511047128704</v>
+        <v>0.4795628004131753</v>
       </c>
     </row>
     <row r="27">
@@ -5276,19 +5276,19 @@
         <v>4274</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1063</v>
+        <v>1163</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10512</v>
+        <v>9764</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02579142971630133</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006413286208393162</v>
+        <v>0.007019704801173444</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.063428463285579</v>
+        <v>0.05891787674509255</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -5297,19 +5297,19 @@
         <v>4289</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10684</v>
+        <v>10924</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04051095071002731</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01036420049730763</v>
+        <v>0.01063744269238562</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1009053758763518</v>
+        <v>0.1031709861723871</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -5318,19 +5318,19 @@
         <v>8564</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4124</v>
+        <v>4166</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16246</v>
+        <v>16307</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0315294845642549</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01518236158711505</v>
+        <v>0.01534020005100766</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05981423861922081</v>
+        <v>0.06003912707291814</v>
       </c>
     </row>
     <row r="29">
@@ -5347,19 +5347,19 @@
         <v>7412</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3066</v>
+        <v>3138</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14494</v>
+        <v>15265</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0447260487060853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0184996236794852</v>
+        <v>0.01893345767091073</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0874566997855675</v>
+        <v>0.09211067078628642</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -5368,19 +5368,19 @@
         <v>3355</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8971</v>
+        <v>9076</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03168293111549458</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0</v>
+        <v>0.01022347682391769</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0847329236736748</v>
+        <v>0.08572437537699289</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -5389,19 +5389,19 @@
         <v>10767</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5272</v>
+        <v>5227</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17433</v>
+        <v>19224</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03964149981655159</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01940908950554386</v>
+        <v>0.01924399873750796</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06418337559482445</v>
+        <v>0.07077884628911592</v>
       </c>
     </row>
     <row r="30">
@@ -5418,19 +5418,19 @@
         <v>40031</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29094</v>
+        <v>30154</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52763</v>
+        <v>51532</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2415472062663342</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1755565768600084</v>
+        <v>0.181951451716878</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3183723221438375</v>
+        <v>0.3109479814572775</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -5439,19 +5439,19 @@
         <v>22322</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14272</v>
+        <v>13345</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>32335</v>
+        <v>32340</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2108227296819987</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1347937106138717</v>
+        <v>0.1260376102906734</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3053997488483545</v>
+        <v>0.3054402340457004</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>54</v>
@@ -5460,19 +5460,19 @@
         <v>62352</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>49314</v>
+        <v>47845</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>77793</v>
+        <v>77579</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.22957000049376</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1815644712202491</v>
+        <v>0.1761564276297798</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2864183830675019</v>
+        <v>0.285633021867561</v>
       </c>
     </row>
     <row r="31">
@@ -5489,19 +5489,19 @@
         <v>36975</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>27495</v>
+        <v>26790</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>49750</v>
+        <v>51029</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2231121437271018</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1659089015588191</v>
+        <v>0.1616543179824773</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3001921375354665</v>
+        <v>0.3079115240629474</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>34</v>
@@ -5510,19 +5510,19 @@
         <v>39219</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28306</v>
+        <v>29316</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51087</v>
+        <v>50533</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3704142849049401</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2673404893840082</v>
+        <v>0.2768809493624307</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.482504883399748</v>
+        <v>0.4772745822576903</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>66</v>
@@ -5531,19 +5531,19 @@
         <v>76195</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>61108</v>
+        <v>62164</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>92642</v>
+        <v>93596</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2805343768051826</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2249892931222877</v>
+        <v>0.2288777165733388</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3410901680931818</v>
+        <v>0.344603680045077</v>
       </c>
     </row>
     <row r="32">
@@ -5560,19 +5560,19 @@
         <v>77033</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>63672</v>
+        <v>64504</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>90175</v>
+        <v>91160</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4648231715841774</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3841988124770588</v>
+        <v>0.3892236285353099</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5441233117417621</v>
+        <v>0.550062215890233</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -5581,19 +5581,19 @@
         <v>36694</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26599</v>
+        <v>26632</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>46947</v>
+        <v>48048</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3465691035875393</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2512202992351511</v>
+        <v>0.2515282718342087</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4433993857380186</v>
+        <v>0.453796603173275</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>98</v>
@@ -5602,19 +5602,19 @@
         <v>113728</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>97784</v>
+        <v>97343</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>132150</v>
+        <v>130672</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.418724638320251</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.360021797456259</v>
+        <v>0.3583983980485125</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4865505604896194</v>
+        <v>0.4811108467849048</v>
       </c>
     </row>
     <row r="33">
@@ -5706,19 +5706,19 @@
         <v>40899</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>29614</v>
+        <v>29412</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>55787</v>
+        <v>54598</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02887694612523046</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.020908799418947</v>
+        <v>0.02076642527688913</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03938788240732224</v>
+        <v>0.03854885768050711</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>37</v>
@@ -5727,19 +5727,19 @@
         <v>36756</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>25890</v>
+        <v>26676</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>50334</v>
+        <v>48944</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03561658074295551</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02508749973651922</v>
+        <v>0.02584885079074824</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04877379438869551</v>
+        <v>0.04742747594993347</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>75</v>
@@ -5748,19 +5748,19 @@
         <v>77655</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>62047</v>
+        <v>62989</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>96209</v>
+        <v>97280</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03171774459548342</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02534284671010082</v>
+        <v>0.0257272808639705</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03929607193044254</v>
+        <v>0.03973324039820558</v>
       </c>
     </row>
     <row r="35">
@@ -5777,19 +5777,19 @@
         <v>74402</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>58491</v>
+        <v>58342</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>93587</v>
+        <v>92544</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05253096606527831</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04129722136682868</v>
+        <v>0.04119243486667921</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06607675721116009</v>
+        <v>0.06534066342914352</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>59</v>
@@ -5798,19 +5798,19 @@
         <v>59502</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>46124</v>
+        <v>45809</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>76265</v>
+        <v>77126</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0576584211645247</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04469495511897309</v>
+        <v>0.04438959652524309</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07390196563538641</v>
+        <v>0.07473568118033042</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>128</v>
@@ -5819,19 +5819,19 @@
         <v>133904</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>112034</v>
+        <v>112495</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>157054</v>
+        <v>156774</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05469222070717263</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04575966787789897</v>
+        <v>0.04594783671071721</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06414782108748218</v>
+        <v>0.06403333856937683</v>
       </c>
     </row>
     <row r="36">
@@ -5848,19 +5848,19 @@
         <v>268857</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>241524</v>
+        <v>241055</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>303390</v>
+        <v>298634</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1898256662271304</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1705272876136296</v>
+        <v>0.1701963190533299</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.214207179930209</v>
+        <v>0.2108498586725132</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>169</v>
@@ -5869,19 +5869,19 @@
         <v>173494</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>150299</v>
+        <v>150389</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>197393</v>
+        <v>198586</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1681172592030936</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1456406755623657</v>
+        <v>0.1457279960158832</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1912753813857027</v>
+        <v>0.1924314258017055</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>421</v>
@@ -5890,19 +5890,19 @@
         <v>442351</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>407278</v>
+        <v>403102</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>481809</v>
+        <v>479133</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1806754358417436</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1663499459044909</v>
+        <v>0.1646443404893149</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1967918882614424</v>
+        <v>0.1956989163398291</v>
       </c>
     </row>
     <row r="37">
@@ -5919,19 +5919,19 @@
         <v>463126</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>427544</v>
+        <v>430092</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>499960</v>
+        <v>499628</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.326988894843232</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3018659828739543</v>
+        <v>0.3036648059406429</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3529952591769845</v>
+        <v>0.3527610305467559</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>308</v>
@@ -5940,19 +5940,19 @@
         <v>310578</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>284242</v>
+        <v>284071</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>342697</v>
+        <v>340466</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3009524921016566</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2754331698440771</v>
+        <v>0.2752669285869113</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3320763160742937</v>
+        <v>0.32991507624352</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>743</v>
@@ -5961,19 +5961,19 @@
         <v>773704</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>723050</v>
+        <v>727091</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>818825</v>
+        <v>823628</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3160143869842104</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2953250079520444</v>
+        <v>0.2969758369794389</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3344437035518097</v>
+        <v>0.3364057415060718</v>
       </c>
     </row>
     <row r="38">
@@ -5990,19 +5990,19 @@
         <v>569052</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>530655</v>
+        <v>527290</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>606214</v>
+        <v>604048</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4017775267391289</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3746674596194145</v>
+        <v>0.3722911090306842</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.428015330879524</v>
+        <v>0.4264861716968462</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>435</v>
@@ -6011,19 +6011,19 @@
         <v>451652</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>420115</v>
+        <v>420716</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>481834</v>
+        <v>482754</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4376552467877696</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4070948264094703</v>
+        <v>0.4076779474410165</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4669015029170532</v>
+        <v>0.4677931319248955</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>958</v>
@@ -6032,19 +6032,19 @@
         <v>1020704</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>970483</v>
+        <v>971368</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1071661</v>
+        <v>1068251</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4169002118713899</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3963876696974725</v>
+        <v>0.3967489217817723</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4377132389919408</v>
+        <v>0.436320197064621</v>
       </c>
     </row>
     <row r="39">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11740</v>
+        <v>12415</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07690616242934056</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3899763835772364</v>
+        <v>0.4124028787395383</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10487</v>
+        <v>8598</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07628207627302276</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3723099909764839</v>
+        <v>0.3052468488061785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14943</v>
+        <v>13605</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0766044968476272</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.256432117115098</v>
+        <v>0.2334840038563874</v>
       </c>
     </row>
     <row r="5">
@@ -6495,19 +6495,19 @@
         <v>4632</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12369</v>
+        <v>12510</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1538525380849706</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03972682022670729</v>
+        <v>0.03733119389103413</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4108553595819149</v>
+        <v>0.4155317815866786</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -6519,16 +6519,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7599</v>
+        <v>7230</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.08312460601471285</v>
+        <v>0.08312460601471283</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2697774030219044</v>
+        <v>0.2566997236797133</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -6537,19 +6537,19 @@
         <v>6973</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2354</v>
+        <v>2140</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15110</v>
+        <v>14700</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1196646578454137</v>
+        <v>0.1196646578454138</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04040166943043942</v>
+        <v>0.03671672817566522</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2593139494744554</v>
+        <v>0.2522743930237555</v>
       </c>
     </row>
     <row r="7">
@@ -6566,19 +6566,19 @@
         <v>6280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1544</v>
+        <v>1530</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15918</v>
+        <v>17840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2085899033326625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05127764256801197</v>
+        <v>0.05082055339857437</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5287411223093478</v>
+        <v>0.5925941106712653</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -6587,19 +6587,19 @@
         <v>12143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5637</v>
+        <v>5869</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18962</v>
+        <v>19249</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4310944348086209</v>
+        <v>0.431094434808621</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2001284292623764</v>
+        <v>0.208358300294278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6731828214550648</v>
+        <v>0.6834026741722906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -6608,19 +6608,19 @@
         <v>18422</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10141</v>
+        <v>9507</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29846</v>
+        <v>29669</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3161422953254382</v>
+        <v>0.3161422953254384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1740395739074621</v>
+        <v>0.1631565097760682</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5121917536295776</v>
+        <v>0.5091587394612251</v>
       </c>
     </row>
     <row r="8">
@@ -6637,19 +6637,19 @@
         <v>16878</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7800</v>
+        <v>7495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24444</v>
+        <v>24473</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5606513961530263</v>
+        <v>0.5606513961530264</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2590970766350019</v>
+        <v>0.2489658498523964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8119597020507849</v>
+        <v>0.8129313871033688</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -6658,19 +6658,19 @@
         <v>11534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5727</v>
+        <v>5157</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18537</v>
+        <v>18512</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4094988829036436</v>
+        <v>0.4094988829036434</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2033160425076743</v>
+        <v>0.1830762979581311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6580989822479452</v>
+        <v>0.6572245112733908</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -6679,19 +6679,19 @@
         <v>28412</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17590</v>
+        <v>17580</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39936</v>
+        <v>38971</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4875885499815207</v>
+        <v>0.4875885499815209</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3018685475382874</v>
+        <v>0.3016916321223801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6853554628196307</v>
+        <v>0.6687816907924307</v>
       </c>
     </row>
     <row r="9">
@@ -6783,19 +6783,19 @@
         <v>9997</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4054</v>
+        <v>4257</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20504</v>
+        <v>20376</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08433571442202252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0341973077518347</v>
+        <v>0.03591425094150664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1729738662630842</v>
+        <v>0.1718925420374006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5018</v>
+        <v>4812</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01042133167714447</v>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05362115268377835</v>
+        <v>0.05141700063034012</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -6825,19 +6825,19 @@
         <v>10972</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4501</v>
+        <v>4280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21179</v>
+        <v>20807</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05172747643612436</v>
+        <v>0.05172747643612435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0212200835402835</v>
+        <v>0.02017868465286553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0998422904421634</v>
+        <v>0.09809156713716069</v>
       </c>
     </row>
     <row r="11">
@@ -6854,19 +6854,19 @@
         <v>5174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13449</v>
+        <v>15001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0436513585382012</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01075275180754544</v>
+        <v>0.0106761985233526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1134550709956313</v>
+        <v>0.1265441699190442</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -6875,19 +6875,19 @@
         <v>4324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>996</v>
+        <v>1020</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10162</v>
+        <v>10686</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04620661931439288</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01063956789009638</v>
+        <v>0.01089795037870631</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1085978480167838</v>
+        <v>0.1141875193240288</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -6896,19 +6896,19 @@
         <v>9498</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4453</v>
+        <v>3911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19722</v>
+        <v>19393</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.04477864322099</v>
+        <v>0.04477864322098999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02099107441663206</v>
+        <v>0.01843717224050091</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09297642487066991</v>
+        <v>0.091422540134067</v>
       </c>
     </row>
     <row r="12">
@@ -6925,19 +6925,19 @@
         <v>24442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14195</v>
+        <v>14693</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37139</v>
+        <v>37673</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2061887841345869</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1197471620817565</v>
+        <v>0.1239506691025136</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3133001918572517</v>
+        <v>0.317803795048816</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -6946,19 +6946,19 @@
         <v>12801</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7610</v>
+        <v>7491</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21157</v>
+        <v>21156</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1367919927198812</v>
+        <v>0.1367919927198813</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08132568758185661</v>
+        <v>0.08005417238030406</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2260914409063859</v>
+        <v>0.2260725203781813</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>28</v>
@@ -6967,19 +6967,19 @@
         <v>37243</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>25002</v>
+        <v>25603</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>52574</v>
+        <v>53618</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1755735370625918</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1178652842221918</v>
+        <v>0.1207011162878916</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.247849843978526</v>
+        <v>0.2527716721273691</v>
       </c>
     </row>
     <row r="13">
@@ -6996,19 +6996,19 @@
         <v>30951</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19842</v>
+        <v>19889</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44410</v>
+        <v>44902</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2611024983615334</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1673850918837352</v>
+        <v>0.1677854918202983</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3746422656741145</v>
+        <v>0.3787905537058097</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -7017,19 +7017,19 @@
         <v>24062</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16940</v>
+        <v>15585</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34637</v>
+        <v>33118</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2571308212668195</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1810276651816637</v>
+        <v>0.1665471927810945</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3701340652445907</v>
+        <v>0.3538991043104708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -7038,19 +7038,19 @@
         <v>55013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41683</v>
+        <v>42017</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72130</v>
+        <v>72620</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2593503442191579</v>
+        <v>0.2593503442191578</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1965061292107712</v>
+        <v>0.1980792133187978</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3400418398383847</v>
+        <v>0.3423513452082174</v>
       </c>
     </row>
     <row r="14">
@@ -7067,19 +7067,19 @@
         <v>47976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34120</v>
+        <v>34790</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63532</v>
+        <v>64072</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4047216445436558</v>
+        <v>0.4047216445436559</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2878330226826988</v>
+        <v>0.2934858718661389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5359530180821621</v>
+        <v>0.5405030638807784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -7088,19 +7088,19 @@
         <v>51417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41543</v>
+        <v>41054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61349</v>
+        <v>61126</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5494492350217619</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4439329522387018</v>
+        <v>0.4387058083164709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6555849469651219</v>
+        <v>0.6532047975939891</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -7109,19 +7109,19 @@
         <v>99393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>82300</v>
+        <v>82783</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>118064</v>
+        <v>119483</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4685699990611361</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3879871340685102</v>
+        <v>0.3902632891674587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5565906243863422</v>
+        <v>0.5632822279958449</v>
       </c>
     </row>
     <row r="15">
@@ -7213,19 +7213,19 @@
         <v>6594</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2272</v>
+        <v>2284</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14527</v>
+        <v>15956</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05447855363440594</v>
+        <v>0.05447855363440593</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01877351698766962</v>
+        <v>0.01887079397246689</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1200188156776082</v>
+        <v>0.1318210019617609</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -7234,19 +7234,19 @@
         <v>4908</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1862</v>
+        <v>2133</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9713</v>
+        <v>9513</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04679867244946874</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01775699068415485</v>
+        <v>0.02033498133643974</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09260458908603181</v>
+        <v>0.09070267555230628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -7255,19 +7255,19 @@
         <v>11503</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6315</v>
+        <v>6064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20673</v>
+        <v>20945</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0509132156783133</v>
+        <v>0.05091321567831329</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02795293073812187</v>
+        <v>0.02684273200975465</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09150217218938943</v>
+        <v>0.0927088884736763</v>
       </c>
     </row>
     <row r="17">
@@ -7284,19 +7284,19 @@
         <v>7334</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2593</v>
+        <v>2787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14925</v>
+        <v>15305</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06059217673043359</v>
+        <v>0.06059217673043357</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02142586494118832</v>
+        <v>0.02302488335955069</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1233044591478161</v>
+        <v>0.1264410386191432</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -7305,19 +7305,19 @@
         <v>3368</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>877</v>
+        <v>890</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8053</v>
+        <v>7989</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03211392982243096</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008357465182368393</v>
+        <v>0.008482962175223681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0767819176379962</v>
+        <v>0.07616663670458831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -7326,19 +7326,19 @@
         <v>10702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5183</v>
+        <v>4797</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19625</v>
+        <v>18918</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04737132445693454</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02294004013549731</v>
+        <v>0.02123337405289217</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08686230597564926</v>
+        <v>0.08373469115408205</v>
       </c>
     </row>
     <row r="18">
@@ -7355,19 +7355,19 @@
         <v>19654</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12007</v>
+        <v>12117</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29671</v>
+        <v>29626</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1623704026095956</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09919867010060489</v>
+        <v>0.1001079958427569</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2451263950842492</v>
+        <v>0.2447609550492812</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -7376,19 +7376,19 @@
         <v>22692</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16215</v>
+        <v>16193</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31026</v>
+        <v>31336</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2163536263701331</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1546017458481279</v>
+        <v>0.1543901347262155</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2958087874911027</v>
+        <v>0.2987631322112856</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -7397,19 +7397,19 @@
         <v>42346</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31326</v>
+        <v>31531</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>55426</v>
+        <v>54583</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1874317846845137</v>
+        <v>0.1874317846845138</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1386569411917098</v>
+        <v>0.139561683752</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2453280857397677</v>
+        <v>0.2415955663575721</v>
       </c>
     </row>
     <row r="19">
@@ -7426,19 +7426,19 @@
         <v>28089</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19611</v>
+        <v>18767</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38924</v>
+        <v>38483</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2320569059898963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1620146546583312</v>
+        <v>0.1550491588876786</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3215710851925679</v>
+        <v>0.3179299816908869</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -7447,19 +7447,19 @@
         <v>24636</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17641</v>
+        <v>17966</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32509</v>
+        <v>32883</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2348876338359656</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1681959986594857</v>
+        <v>0.1712963887705394</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3099455099487075</v>
+        <v>0.3135116954209182</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -7468,19 +7468,19 @@
         <v>52725</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41554</v>
+        <v>41352</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65564</v>
+        <v>66940</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2333710541114524</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1839251789069943</v>
+        <v>0.1830318814246097</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2902008363670658</v>
+        <v>0.2962894312920182</v>
       </c>
     </row>
     <row r="20">
@@ -7497,19 +7497,19 @@
         <v>59371</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47799</v>
+        <v>46897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72136</v>
+        <v>71482</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4905019610356686</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3948951628632842</v>
+        <v>0.3874451364407692</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.595957632564743</v>
+        <v>0.5905588319460919</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>65</v>
@@ -7518,19 +7518,19 @@
         <v>49280</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40717</v>
+        <v>40545</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57631</v>
+        <v>58400</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4698461375220017</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3882100881254256</v>
+        <v>0.3865694787159517</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.549463837683866</v>
+        <v>0.5567991889261844</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -7539,19 +7539,19 @@
         <v>108651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>93866</v>
+        <v>93289</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>124064</v>
+        <v>124526</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.480912621068786</v>
+        <v>0.4809126210687861</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4154706701036081</v>
+        <v>0.4129162745762622</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5491343162766185</v>
+        <v>0.5511790146834689</v>
       </c>
     </row>
     <row r="21">
@@ -7643,19 +7643,19 @@
         <v>5723</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2245</v>
+        <v>2267</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12649</v>
+        <v>12565</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04171973929318755</v>
+        <v>0.04171973929318754</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.016362808569337</v>
+        <v>0.01652856698406271</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09220919052042345</v>
+        <v>0.09160298775736077</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -7664,19 +7664,19 @@
         <v>8391</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4765</v>
+        <v>4812</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13670</v>
+        <v>14705</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06910568502859982</v>
+        <v>0.06910568502859983</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03924727125575372</v>
+        <v>0.03963426028627821</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1125822438744087</v>
+        <v>0.1211106757928255</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -7685,19 +7685,19 @@
         <v>14114</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8522</v>
+        <v>8252</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22457</v>
+        <v>21812</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05457863471007236</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03295367835852389</v>
+        <v>0.03191266616816014</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08684294347411069</v>
+        <v>0.08434911260604457</v>
       </c>
     </row>
     <row r="23">
@@ -7714,19 +7714,19 @@
         <v>10535</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5362</v>
+        <v>5356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17741</v>
+        <v>18470</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.07680107617545014</v>
+        <v>0.07680107617545015</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03909233773155846</v>
+        <v>0.03904420697828461</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1293322435714725</v>
+        <v>0.1346453454196513</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -7735,19 +7735,19 @@
         <v>5340</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2619</v>
+        <v>2523</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10110</v>
+        <v>10404</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.04397761524501747</v>
+        <v>0.04397761524501748</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02157370174092903</v>
+        <v>0.02078182450572423</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08326157436334686</v>
+        <v>0.08568330882330351</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -7756,19 +7756,19 @@
         <v>15875</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9453</v>
+        <v>9854</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24468</v>
+        <v>24671</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.06138903032527294</v>
+        <v>0.06138903032527295</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03655476855036966</v>
+        <v>0.03810783127450944</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09462026230106353</v>
+        <v>0.09540324539877933</v>
       </c>
     </row>
     <row r="24">
@@ -7785,19 +7785,19 @@
         <v>25771</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17630</v>
+        <v>17470</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36446</v>
+        <v>35029</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1878759606217506</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1285257714541473</v>
+        <v>0.127355942035721</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.265694624074808</v>
+        <v>0.2553687276973314</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -7806,19 +7806,19 @@
         <v>21698</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15777</v>
+        <v>15787</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28874</v>
+        <v>29626</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1787022529206532</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.129937327123696</v>
+        <v>0.1300160393863308</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2377996386607919</v>
+        <v>0.2439933737176838</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -7827,19 +7827,19 @@
         <v>47469</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>36282</v>
+        <v>36603</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>58372</v>
+        <v>60368</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1835685049270238</v>
+        <v>0.1835685049270237</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1403049476487983</v>
+        <v>0.1415454379031666</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.225730211214652</v>
+        <v>0.2334483504707733</v>
       </c>
     </row>
     <row r="25">
@@ -7856,19 +7856,19 @@
         <v>35136</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25329</v>
+        <v>24697</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46945</v>
+        <v>45770</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2561473103128504</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1846507138882175</v>
+        <v>0.1800427508937336</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3422324398106093</v>
+        <v>0.3336652702166472</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -7877,19 +7877,19 @@
         <v>29744</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22495</v>
+        <v>22814</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37980</v>
+        <v>38499</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2449690998321005</v>
+        <v>0.2449690998321006</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1852681909252211</v>
+        <v>0.187893891284869</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3128026398410921</v>
+        <v>0.3170752037940595</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -7898,19 +7898,19 @@
         <v>64880</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52320</v>
+        <v>53301</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79277</v>
+        <v>79051</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2508986531764996</v>
+        <v>0.2508986531764995</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.202324844822421</v>
+        <v>0.2061215100058723</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3065703987874208</v>
+        <v>0.3056960639714993</v>
       </c>
     </row>
     <row r="26">
@@ -7927,19 +7927,19 @@
         <v>60007</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46929</v>
+        <v>49514</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>71658</v>
+        <v>73399</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4374559135967614</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.342115248620149</v>
+        <v>0.3609650204317806</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.522391917778575</v>
+        <v>0.5350874516151924</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>86</v>
@@ -7948,19 +7948,19 @@
         <v>56247</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47721</v>
+        <v>46934</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65794</v>
+        <v>65563</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.463245346973629</v>
+        <v>0.4632453469736291</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3930272281600173</v>
+        <v>0.3865427543902942</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5418700531352358</v>
+        <v>0.5399721489352195</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>143</v>
@@ -7969,19 +7969,19 @@
         <v>116254</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>102425</v>
+        <v>101355</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>132638</v>
+        <v>130988</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4495651768611315</v>
+        <v>0.4495651768611314</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3960866370094152</v>
+        <v>0.3919497660658286</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5129225811932588</v>
+        <v>0.5065437213196071</v>
       </c>
     </row>
     <row r="27">
@@ -8073,19 +8073,19 @@
         <v>3529</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>893</v>
+        <v>943</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8088</v>
+        <v>8531</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05144691922377464</v>
+        <v>0.05144691922377465</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01301149386606564</v>
+        <v>0.01375011265701998</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1179027190960713</v>
+        <v>0.1243681680343832</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -8097,16 +8097,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.02836315969419894</v>
+        <v>0.02836315969419893</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08604272817229117</v>
+        <v>0.08600072276655985</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -8115,19 +8115,19 @@
         <v>4693</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1785</v>
+        <v>1825</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9665</v>
+        <v>9729</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04280507415323077</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01627724727590733</v>
+        <v>0.01664278191517283</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08814422163704055</v>
+        <v>0.0887276621519909</v>
       </c>
     </row>
     <row r="29">
@@ -8144,19 +8144,19 @@
         <v>5708</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1976</v>
+        <v>2497</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11067</v>
+        <v>11680</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.083211770755273</v>
+        <v>0.08321177075527303</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02879921792531251</v>
+        <v>0.03639423804602625</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1613374321221158</v>
+        <v>0.1702725343969057</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -8165,19 +8165,19 @@
         <v>3829</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1691</v>
+        <v>1831</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7607</v>
+        <v>7713</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.09327950150260769</v>
+        <v>0.09327950150260765</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04118578814589062</v>
+        <v>0.04461381269113718</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1853284224202545</v>
+        <v>0.1879138796794043</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -8186,19 +8186,19 @@
         <v>9537</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5187</v>
+        <v>4857</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15438</v>
+        <v>15643</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08698081752683312</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04730310258520726</v>
+        <v>0.04429805613139376</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1408002469936345</v>
+        <v>0.1426670640075376</v>
       </c>
     </row>
     <row r="30">
@@ -8215,19 +8215,19 @@
         <v>16442</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10582</v>
+        <v>10550</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24273</v>
+        <v>23973</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2396897797899529</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1542648209966903</v>
+        <v>0.1537993016416383</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3538421498227519</v>
+        <v>0.349476336789643</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>15</v>
@@ -8236,19 +8236,19 @@
         <v>9356</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5634</v>
+        <v>5749</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13955</v>
+        <v>13893</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2279351490414463</v>
+        <v>0.2279351490414462</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1372490563916898</v>
+        <v>0.1400578363447705</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.339975693465389</v>
+        <v>0.3384470667815887</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>33</v>
@@ -8257,19 +8257,19 @@
         <v>25799</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18396</v>
+        <v>17897</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>34113</v>
+        <v>34466</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2352892098715262</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1677742822606973</v>
+        <v>0.1632295646228068</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3111158776756131</v>
+        <v>0.3143420006436368</v>
       </c>
     </row>
     <row r="31">
@@ -8286,19 +8286,19 @@
         <v>16823</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10504</v>
+        <v>10972</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>23887</v>
+        <v>24739</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2452367880749162</v>
+        <v>0.2452367880749163</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1531309262498008</v>
+        <v>0.159952261326453</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3482202502470643</v>
+        <v>0.3606408712021417</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -8307,19 +8307,19 @@
         <v>10698</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6487</v>
+        <v>6508</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15098</v>
+        <v>15351</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2606203158465158</v>
+        <v>0.2606203158465157</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1580304055398009</v>
+        <v>0.158540054024916</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3678066214739075</v>
+        <v>0.3739781371266103</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>37</v>
@@ -8328,19 +8328,19 @@
         <v>27521</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19976</v>
+        <v>20418</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>36186</v>
+        <v>37279</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2509959047157841</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1821875055771527</v>
+        <v>0.1862180940361463</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.330028564113333</v>
+        <v>0.3399956229623619</v>
       </c>
     </row>
     <row r="32">
@@ -8357,19 +8357,19 @@
         <v>26096</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19344</v>
+        <v>18743</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35034</v>
+        <v>33880</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3804147421560832</v>
+        <v>0.3804147421560833</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2819846861298301</v>
+        <v>0.2732351682651961</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5107211379002372</v>
+        <v>0.4938988808232003</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -8378,19 +8378,19 @@
         <v>16001</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11177</v>
+        <v>11499</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20715</v>
+        <v>20987</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3898018739152314</v>
+        <v>0.3898018739152313</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2722796087719635</v>
+        <v>0.2801425585872006</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5046651557561039</v>
+        <v>0.5112850773323354</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -8399,19 +8399,19 @@
         <v>42096</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>33333</v>
+        <v>32456</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>52693</v>
+        <v>50823</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.3839289937326257</v>
+        <v>0.3839289937326258</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3040095371867824</v>
+        <v>0.2960030206825194</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4805734927674987</v>
+        <v>0.4635169152093869</v>
       </c>
     </row>
     <row r="33">
@@ -8503,19 +8503,19 @@
         <v>28159</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>18392</v>
+        <v>17569</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>43011</v>
+        <v>43014</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.05922420119547753</v>
+        <v>0.05922420119547752</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03868347905459252</v>
+        <v>0.03695092051802983</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09046188513614706</v>
+        <v>0.09046835383817019</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>23</v>
@@ -8524,19 +8524,19 @@
         <v>17587</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10867</v>
+        <v>11153</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26254</v>
+        <v>26240</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04520025643101441</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02792762959625171</v>
+        <v>0.02866465735229232</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06747420933252107</v>
+        <v>0.0674377234329528</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>44</v>
@@ -8545,19 +8545,19 @@
         <v>45746</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>33617</v>
+        <v>32438</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>63486</v>
+        <v>60912</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.05291262753039017</v>
+        <v>0.05291262753039016</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03888407957055857</v>
+        <v>0.03751986277534577</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07343217452414853</v>
+        <v>0.07045473934008091</v>
       </c>
     </row>
     <row r="35">
@@ -8574,19 +8574,19 @@
         <v>28752</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19135</v>
+        <v>18782</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>41409</v>
+        <v>40513</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.06047183350870602</v>
+        <v>0.06047183350870601</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04024578027993756</v>
+        <v>0.03950246790123478</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08709340671378206</v>
+        <v>0.08520767903383127</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>22</v>
@@ -8595,19 +8595,19 @@
         <v>16861</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10561</v>
+        <v>10424</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26076</v>
+        <v>24730</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.0433333197663259</v>
+        <v>0.04333331976632589</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.027143003354262</v>
+        <v>0.02679088506928975</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06701670270562506</v>
+        <v>0.06355745191656019</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>47</v>
@@ -8616,19 +8616,19 @@
         <v>45613</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>33526</v>
+        <v>32916</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>61694</v>
+        <v>59835</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.05275852646051719</v>
+        <v>0.05275852646051718</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03877842722877601</v>
+        <v>0.03807221862375765</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07135923200697571</v>
+        <v>0.06920911368571053</v>
       </c>
     </row>
     <row r="36">
@@ -8645,19 +8645,19 @@
         <v>90941</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>72798</v>
+        <v>73639</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>112612</v>
+        <v>111158</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1912698097707157</v>
+        <v>0.1912698097707156</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1531110391834279</v>
+        <v>0.1548806971208697</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2368496857280536</v>
+        <v>0.2337927804901988</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>94</v>
@@ -8666,19 +8666,19 @@
         <v>68889</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>56963</v>
+        <v>55588</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>84341</v>
+        <v>83739</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1770470434019508</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.146396342873273</v>
+        <v>0.1428626872443986</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2167586541615323</v>
+        <v>0.2152113936282075</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>173</v>
@@ -8687,19 +8687,19 @@
         <v>159829</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>135558</v>
+        <v>136707</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>182252</v>
+        <v>187596</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1848687550628235</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1567955028650357</v>
+        <v>0.1581235853801114</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2108046300575757</v>
+        <v>0.216985772712951</v>
       </c>
     </row>
     <row r="37">
@@ -8716,19 +8716,19 @@
         <v>117278</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>98186</v>
+        <v>96792</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>141034</v>
+        <v>139294</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2466644475748124</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2065092582514643</v>
+        <v>0.2035772037046599</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2966287099569562</v>
+        <v>0.29296887247556</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>130</v>
@@ -8737,19 +8737,19 @@
         <v>101283</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>86419</v>
+        <v>86241</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>117992</v>
+        <v>119530</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.260301062576084</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2221006870900531</v>
+        <v>0.2216428527007496</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3032450745050774</v>
+        <v>0.307196183618936</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>230</v>
@@ -8758,19 +8758,19 @@
         <v>218561</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>194274</v>
+        <v>194232</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>246451</v>
+        <v>246335</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2528017007919715</v>
+        <v>0.2528017007919714</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2247100197717657</v>
+        <v>0.2246605254502591</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2850609396269039</v>
+        <v>0.2849262257093583</v>
       </c>
     </row>
     <row r="38">
@@ -8787,19 +8787,19 @@
         <v>210328</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>184549</v>
+        <v>187953</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>233290</v>
+        <v>238349</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.4423697079502884</v>
+        <v>0.4423697079502883</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3881504140373901</v>
+        <v>0.3953110375202726</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4906638836687826</v>
+        <v>0.5013049183329187</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>230</v>
@@ -8808,19 +8808,19 @@
         <v>184479</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>164921</v>
+        <v>167435</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>201826</v>
+        <v>204110</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.474118317824625</v>
+        <v>0.4741183178246249</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4238548369446662</v>
+        <v>0.4303141897079129</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5187015742181471</v>
+        <v>0.5245710167074042</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>394</v>
@@ -8829,19 +8829,19 @@
         <v>394807</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>365678</v>
+        <v>362990</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>426638</v>
+        <v>426021</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.4566583901542979</v>
+        <v>0.4566583901542977</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4229661066336651</v>
+        <v>0.4198572154852173</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4934759370312793</v>
+        <v>0.4927623391062988</v>
       </c>
     </row>
     <row r="39">
